--- a/2023 Maya Thomson/Sum of Thesis Stream Data.xlsx
+++ b/2023 Maya Thomson/Sum of Thesis Stream Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/2023 Maya Thomson/statistical analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{F2870FDB-9764-46DC-9DB1-49DC2FAC9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7A0E03E-BE01-4CC2-B413-8FA06A08A411}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{F2870FDB-9764-46DC-9DB1-49DC2FAC9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2DD5902-750D-4453-94EB-D174B13151CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
@@ -323,13 +323,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
   <dimension ref="A1:I623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A451" zoomScale="112" workbookViewId="0">
-      <selection activeCell="G464" sqref="G464"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13931,7 +13930,7 @@
       <c r="D458">
         <v>2</v>
       </c>
-      <c r="E458" s="3" t="s">
+      <c r="E458" t="s">
         <v>43</v>
       </c>
       <c r="F458">
@@ -13960,7 +13959,7 @@
       <c r="D459">
         <v>2</v>
       </c>
-      <c r="E459" s="3" t="s">
+      <c r="E459" t="s">
         <v>43</v>
       </c>
       <c r="F459">
@@ -13989,7 +13988,7 @@
       <c r="D460">
         <v>2</v>
       </c>
-      <c r="E460" s="3" t="s">
+      <c r="E460" t="s">
         <v>43</v>
       </c>
       <c r="F460">
@@ -14018,7 +14017,7 @@
       <c r="D461">
         <v>2</v>
       </c>
-      <c r="E461" s="3" t="s">
+      <c r="E461" t="s">
         <v>46</v>
       </c>
       <c r="F461">
@@ -14047,7 +14046,7 @@
       <c r="D462">
         <v>2</v>
       </c>
-      <c r="E462" s="3" t="s">
+      <c r="E462" t="s">
         <v>43</v>
       </c>
       <c r="F462">
@@ -14076,7 +14075,7 @@
       <c r="D463">
         <v>2</v>
       </c>
-      <c r="E463" s="3" t="s">
+      <c r="E463" t="s">
         <v>40</v>
       </c>
       <c r="F463">
@@ -14105,7 +14104,7 @@
       <c r="D464">
         <v>2</v>
       </c>
-      <c r="E464" s="3" t="s">
+      <c r="E464" t="s">
         <v>40</v>
       </c>
       <c r="F464">
@@ -14134,7 +14133,7 @@
       <c r="D465">
         <v>2</v>
       </c>
-      <c r="E465" s="3" t="s">
+      <c r="E465" t="s">
         <v>47</v>
       </c>
       <c r="F465">
@@ -14163,7 +14162,7 @@
       <c r="D466">
         <v>2</v>
       </c>
-      <c r="E466" s="3" t="s">
+      <c r="E466" t="s">
         <v>47</v>
       </c>
       <c r="F466">
@@ -14192,7 +14191,7 @@
       <c r="D467">
         <v>2</v>
       </c>
-      <c r="E467" s="3" t="s">
+      <c r="E467" t="s">
         <v>43</v>
       </c>
       <c r="F467">
@@ -14221,7 +14220,7 @@
       <c r="D468">
         <v>2</v>
       </c>
-      <c r="E468" s="3" t="s">
+      <c r="E468" t="s">
         <v>43</v>
       </c>
       <c r="F468">
@@ -14250,7 +14249,7 @@
       <c r="D469">
         <v>2</v>
       </c>
-      <c r="E469" s="3" t="s">
+      <c r="E469" t="s">
         <v>22</v>
       </c>
       <c r="F469">
@@ -14279,7 +14278,7 @@
       <c r="D470">
         <v>2</v>
       </c>
-      <c r="E470" s="3" t="s">
+      <c r="E470" t="s">
         <v>43</v>
       </c>
       <c r="F470">
@@ -14308,7 +14307,7 @@
       <c r="D471">
         <v>2</v>
       </c>
-      <c r="E471" s="3" t="s">
+      <c r="E471" t="s">
         <v>47</v>
       </c>
       <c r="F471">

--- a/2023 Maya Thomson/Sum of Thesis Stream Data.xlsx
+++ b/2023 Maya Thomson/Sum of Thesis Stream Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{F2870FDB-9764-46DC-9DB1-49DC2FAC9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2DD5902-750D-4453-94EB-D174B13151CD}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{F2870FDB-9764-46DC-9DB1-49DC2FAC9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4EB55C7-AD42-4451-A169-B751C337DC30}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
@@ -303,12 +303,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,12 +329,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
   <dimension ref="A1:I623"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A566" zoomScale="112" workbookViewId="0">
+      <selection activeCell="M576" sqref="M576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8784,293 +8792,293 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>79</v>
-      </c>
-      <c r="B281" t="s">
-        <v>32</v>
-      </c>
-      <c r="C281">
+    <row r="281" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C281" s="3">
         <v>14</v>
       </c>
-      <c r="D281">
-        <v>4</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="D281" s="3">
+        <v>4</v>
+      </c>
+      <c r="E281" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F281">
+      <c r="F281" s="3">
         <v>25</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H281">
+      <c r="H281" s="3">
         <v>3</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>79</v>
-      </c>
-      <c r="B282" t="s">
-        <v>32</v>
-      </c>
-      <c r="C282">
+    <row r="282" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C282" s="3">
         <v>14</v>
       </c>
-      <c r="D282">
-        <v>4</v>
-      </c>
-      <c r="E282" t="s">
+      <c r="D282" s="3">
+        <v>4</v>
+      </c>
+      <c r="E282" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F282">
+      <c r="F282" s="3">
         <v>25</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H282">
+      <c r="H282" s="3">
         <v>3</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>79</v>
-      </c>
-      <c r="B283" t="s">
-        <v>32</v>
-      </c>
-      <c r="C283">
+    <row r="283" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C283" s="3">
         <v>14</v>
       </c>
-      <c r="D283">
-        <v>4</v>
-      </c>
-      <c r="E283" s="1" t="s">
+      <c r="D283" s="3">
+        <v>4</v>
+      </c>
+      <c r="E283" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F283">
-        <v>6</v>
-      </c>
-      <c r="G283" t="s">
+      <c r="F283" s="3">
+        <v>6</v>
+      </c>
+      <c r="G283" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H283">
+      <c r="H283" s="3">
         <v>3</v>
       </c>
-      <c r="I283">
+      <c r="I283" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>79</v>
-      </c>
-      <c r="B284" t="s">
-        <v>32</v>
-      </c>
-      <c r="C284">
+    <row r="284" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C284" s="3">
         <v>14</v>
       </c>
-      <c r="D284">
-        <v>4</v>
-      </c>
-      <c r="E284" s="1" t="s">
+      <c r="D284" s="3">
+        <v>4</v>
+      </c>
+      <c r="E284" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F284">
+      <c r="F284" s="3">
         <v>5.5</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H284">
+      <c r="H284" s="3">
         <v>3</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>79</v>
-      </c>
-      <c r="B285" t="s">
-        <v>32</v>
-      </c>
-      <c r="C285">
+    <row r="285" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C285" s="3">
         <v>14</v>
       </c>
-      <c r="D285">
-        <v>4</v>
-      </c>
-      <c r="E285" t="s">
+      <c r="D285" s="3">
+        <v>4</v>
+      </c>
+      <c r="E285" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F285">
+      <c r="F285" s="3">
         <v>7</v>
       </c>
-      <c r="G285" t="s">
-        <v>12</v>
-      </c>
-      <c r="H285">
+      <c r="G285" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H285" s="3">
         <v>3</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>79</v>
-      </c>
-      <c r="B286" t="s">
-        <v>32</v>
-      </c>
-      <c r="C286">
+    <row r="286" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C286" s="3">
         <v>14</v>
       </c>
-      <c r="D286">
-        <v>4</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="D286" s="3">
+        <v>4</v>
+      </c>
+      <c r="E286" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F286">
+      <c r="F286" s="3">
         <v>6.5</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
-      <c r="H286">
+      <c r="G286" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H286" s="3">
         <v>3</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>79</v>
-      </c>
-      <c r="B287" t="s">
-        <v>32</v>
-      </c>
-      <c r="C287">
+    <row r="287" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C287" s="3">
         <v>14</v>
       </c>
-      <c r="D287">
-        <v>4</v>
-      </c>
-      <c r="E287" t="s">
+      <c r="D287" s="3">
+        <v>4</v>
+      </c>
+      <c r="E287" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F287">
+      <c r="F287" s="3">
         <v>6.2</v>
       </c>
-      <c r="G287" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H287">
+      <c r="G287" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H287" s="3">
         <v>3</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>79</v>
-      </c>
-      <c r="B288" t="s">
-        <v>32</v>
-      </c>
-      <c r="C288">
+    <row r="288" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C288" s="3">
         <v>14</v>
       </c>
-      <c r="D288">
-        <v>4</v>
-      </c>
-      <c r="E288" t="s">
+      <c r="D288" s="3">
+        <v>4</v>
+      </c>
+      <c r="E288" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F288">
+      <c r="F288" s="3">
         <v>6.5</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H288">
+      <c r="G288" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H288" s="3">
         <v>3</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>79</v>
-      </c>
-      <c r="B289" t="s">
-        <v>32</v>
-      </c>
-      <c r="C289">
+    <row r="289" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C289" s="3">
         <v>14</v>
       </c>
-      <c r="D289">
-        <v>4</v>
-      </c>
-      <c r="E289" t="s">
+      <c r="D289" s="3">
+        <v>4</v>
+      </c>
+      <c r="E289" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F289">
+      <c r="F289" s="3">
         <v>6.5</v>
       </c>
-      <c r="G289" t="s">
-        <v>12</v>
-      </c>
-      <c r="H289">
+      <c r="G289" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H289" s="3">
         <v>3</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="3">
         <v>1.89</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>79</v>
-      </c>
-      <c r="B290" t="s">
-        <v>32</v>
-      </c>
-      <c r="C290">
+    <row r="290" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C290" s="3">
         <v>14</v>
       </c>
-      <c r="D290">
-        <v>4</v>
-      </c>
-      <c r="E290" t="s">
+      <c r="D290" s="3">
+        <v>4</v>
+      </c>
+      <c r="E290" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F290">
+      <c r="F290" s="3">
         <v>7</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H290">
+      <c r="H290" s="3">
         <v>3</v>
       </c>
-      <c r="I290">
+      <c r="I290" s="3">
         <v>1.89</v>
       </c>
     </row>
@@ -9464,7 +9472,7 @@
       <c r="D304">
         <v>1</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F304">

--- a/2023 Maya Thomson/Sum of Thesis Stream Data.xlsx
+++ b/2023 Maya Thomson/Sum of Thesis Stream Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Maya Thomson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{F2870FDB-9764-46DC-9DB1-49DC2FAC9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4EB55C7-AD42-4451-A169-B751C337DC30}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{F2870FDB-9764-46DC-9DB1-49DC2FAC9EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E679EAC9-0FDC-4560-ADC3-C2E0ADC0733C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{AAB22E1D-8E06-5D49-96E3-6D7B83B88539}"/>
   </bookViews>
   <sheets>
     <sheet name="Macros" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="82">
   <si>
     <t xml:space="preserve">Stream </t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>urban</t>
+  </si>
+  <si>
+    <t>stevensville</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97050E37-DAEC-6241-BAAF-1902D30BE460}">
   <dimension ref="A1:I623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A566" zoomScale="112" workbookViewId="0">
+    <sheetView topLeftCell="A566" zoomScale="112" workbookViewId="0">
       <selection activeCell="M576" sqref="M576"/>
     </sheetView>
   </sheetViews>
@@ -19038,8 +19041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA1C91F-2417-D940-8D48-39BAA442E5CC}">
   <dimension ref="A1:D623"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D630" sqref="D630"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19060,7 +19063,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -19074,7 +19077,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>28</v>
@@ -19088,7 +19091,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>28</v>
@@ -19102,7 +19105,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>28</v>
@@ -19116,7 +19119,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B6">
         <v>28</v>
@@ -19130,7 +19133,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>28</v>
@@ -19144,7 +19147,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>28</v>
@@ -19158,7 +19161,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>28</v>
@@ -19172,7 +19175,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>28</v>
@@ -19186,7 +19189,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -19200,7 +19203,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>28</v>
@@ -19214,7 +19217,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B13">
         <v>28</v>
@@ -19228,7 +19231,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B14">
         <v>28</v>
@@ -19242,7 +19245,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>28</v>
@@ -19256,7 +19259,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>28</v>
@@ -19270,7 +19273,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -19284,7 +19287,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>28</v>
@@ -19298,7 +19301,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -19312,7 +19315,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>27</v>
@@ -19326,7 +19329,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B21">
         <v>27</v>
@@ -19340,7 +19343,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <v>27</v>
@@ -19354,7 +19357,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>27</v>
@@ -19368,7 +19371,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>27</v>
@@ -19382,7 +19385,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -19396,7 +19399,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>27</v>
@@ -19410,7 +19413,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -19424,7 +19427,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -19438,7 +19441,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -19452,7 +19455,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -19466,7 +19469,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>27</v>
@@ -19480,7 +19483,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>27</v>
@@ -19494,7 +19497,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>27</v>
@@ -19508,7 +19511,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <v>27</v>
@@ -19522,7 +19525,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>27</v>
@@ -19536,7 +19539,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B36">
         <v>27</v>
@@ -19550,7 +19553,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -19564,7 +19567,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -19578,7 +19581,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -19592,7 +19595,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -19606,7 +19609,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -19620,7 +19623,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -19634,7 +19637,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -19648,7 +19651,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>22</v>
@@ -19662,7 +19665,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B45">
         <v>22</v>
@@ -19676,7 +19679,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B46">
         <v>22</v>
@@ -19690,7 +19693,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>22</v>
@@ -19704,7 +19707,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>22</v>
@@ -19718,7 +19721,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B49">
         <v>22</v>
@@ -19732,7 +19735,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B50">
         <v>23</v>
@@ -19746,7 +19749,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B51">
         <v>23</v>
@@ -19760,7 +19763,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B52">
         <v>23</v>
@@ -19774,7 +19777,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B53">
         <v>23</v>
@@ -19788,7 +19791,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B54">
         <v>23</v>
@@ -19802,7 +19805,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B55">
         <v>23</v>
@@ -19816,7 +19819,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B56">
         <v>23</v>
@@ -19830,7 +19833,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>23</v>
@@ -19844,7 +19847,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>23</v>
@@ -19858,7 +19861,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>23</v>
@@ -19872,7 +19875,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B60">
         <v>23</v>
@@ -19886,7 +19889,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>23</v>
@@ -19900,7 +19903,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B62">
         <v>23</v>
@@ -19914,7 +19917,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B63">
         <v>23</v>
@@ -19928,7 +19931,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B64">
         <v>32</v>
@@ -19942,7 +19945,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B65">
         <v>32</v>
@@ -19956,7 +19959,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -19970,7 +19973,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B67">
         <v>32</v>
@@ -19984,7 +19987,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>32</v>
@@ -19998,7 +20001,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B69">
         <v>32</v>
@@ -20012,7 +20015,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B70">
         <v>32</v>
@@ -20026,7 +20029,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B71">
         <v>32</v>
@@ -20040,7 +20043,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B72">
         <v>32</v>
@@ -20054,7 +20057,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B73">
         <v>32</v>
@@ -20068,7 +20071,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>26</v>
@@ -20082,7 +20085,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B75">
         <v>26</v>
@@ -20096,7 +20099,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>26</v>
@@ -20110,7 +20113,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B77">
         <v>26</v>
@@ -20124,7 +20127,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -20138,7 +20141,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>26</v>
@@ -20152,7 +20155,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>26</v>
@@ -20166,7 +20169,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>26</v>
@@ -20180,7 +20183,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B82">
         <v>26</v>
@@ -20194,7 +20197,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>26</v>
@@ -20208,7 +20211,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B84">
         <v>26</v>
@@ -20222,7 +20225,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B85">
         <v>26</v>
@@ -20236,7 +20239,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>26</v>
@@ -20250,7 +20253,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>26</v>
@@ -20264,7 +20267,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B88">
         <v>26</v>
@@ -20278,7 +20281,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B89">
         <v>26</v>
@@ -20292,7 +20295,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B90">
         <v>26</v>
@@ -20306,7 +20309,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B91">
         <v>26</v>
@@ -20320,7 +20323,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B92">
         <v>26</v>
@@ -20334,7 +20337,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B93">
         <v>26</v>
@@ -20348,7 +20351,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B94">
         <v>26</v>
@@ -20362,7 +20365,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B95">
         <v>26</v>
@@ -20376,7 +20379,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B96">
         <v>26</v>
@@ -20390,7 +20393,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B97">
         <v>26</v>
@@ -20404,7 +20407,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B98">
         <v>26</v>
@@ -20418,7 +20421,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B99">
         <v>26</v>
@@ -20432,7 +20435,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B100">
         <v>26</v>
@@ -20446,7 +20449,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B101">
         <v>26</v>
@@ -20460,7 +20463,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B102">
         <v>26</v>
@@ -20474,7 +20477,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B103">
         <v>26</v>
@@ -20488,7 +20491,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B104">
         <v>26</v>
@@ -20502,7 +20505,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B105">
         <v>10</v>
@@ -20516,7 +20519,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B106">
         <v>10</v>
@@ -20530,7 +20533,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B107">
         <v>10</v>
@@ -20544,7 +20547,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B108">
         <v>10</v>
@@ -20558,7 +20561,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B109">
         <v>10</v>
@@ -20572,7 +20575,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B110">
         <v>10</v>
@@ -20586,7 +20589,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B111">
         <v>10</v>
@@ -20600,7 +20603,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B112">
         <v>10</v>
@@ -20614,7 +20617,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B113">
         <v>10</v>
@@ -20628,7 +20631,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B114">
         <v>10</v>
@@ -20642,7 +20645,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B115">
         <v>10</v>
@@ -20656,7 +20659,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B116">
         <v>10</v>
@@ -20670,7 +20673,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B117">
         <v>10</v>
@@ -20684,7 +20687,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B118">
         <v>10</v>
@@ -20698,7 +20701,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B119">
         <v>10</v>
@@ -20712,7 +20715,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B120">
         <v>10</v>
@@ -20726,7 +20729,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B121">
         <v>10</v>
@@ -20740,7 +20743,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B122">
         <v>10</v>
@@ -20754,7 +20757,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -20768,7 +20771,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B124">
         <v>10</v>
@@ -20782,7 +20785,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B125">
         <v>10</v>
@@ -20796,7 +20799,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B126">
         <v>10</v>
@@ -20810,7 +20813,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B127">
         <v>10</v>
@@ -20824,7 +20827,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B128">
         <v>10</v>
@@ -20838,7 +20841,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B129">
         <v>10</v>
@@ -20852,7 +20855,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B130">
         <v>10</v>
@@ -20866,7 +20869,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B131">
         <v>10</v>
@@ -20880,7 +20883,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B132">
         <v>10</v>
@@ -20894,7 +20897,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B133">
         <v>10</v>
@@ -20908,7 +20911,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B134">
         <v>10</v>
@@ -20922,7 +20925,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B135">
         <v>10</v>
@@ -20936,7 +20939,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B136">
         <v>10</v>
@@ -20950,7 +20953,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B137">
         <v>10</v>
@@ -20964,7 +20967,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B138">
         <v>10</v>
@@ -20978,7 +20981,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B139">
         <v>10</v>
@@ -20992,7 +20995,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B140">
         <v>10</v>
@@ -21006,7 +21009,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -21020,7 +21023,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B142">
         <v>10</v>
@@ -21034,7 +21037,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B143">
         <v>10</v>
@@ -21048,7 +21051,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B144">
         <v>10</v>
@@ -21062,7 +21065,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B145">
         <v>10</v>
@@ -21076,7 +21079,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B146">
         <v>10</v>
@@ -21090,7 +21093,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B147">
         <v>10</v>
@@ -21104,7 +21107,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B148">
         <v>10</v>
@@ -21118,7 +21121,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B149">
         <v>10</v>
@@ -21132,7 +21135,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B150">
         <v>10</v>
@@ -21146,7 +21149,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B151">
         <v>10</v>
@@ -21160,7 +21163,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B152">
         <v>10</v>
